--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1.199643701114051</v>
+        <v>0.9727825379741304</v>
       </c>
       <c r="C2">
-        <v>1.211073877946619</v>
+        <v>1.078664240660259</v>
       </c>
       <c r="D2">
-        <v>2.349176850401244</v>
+        <v>1.922255377816953</v>
       </c>
       <c r="E2">
-        <v>1.532702466364964</v>
+        <v>1.386454246564578</v>
       </c>
       <c r="F2">
-        <v>0.989966812610044</v>
+        <v>1.02519390896829</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.9699102550132042</v>
+        <v>0.8757695348867685</v>
       </c>
       <c r="C3">
-        <v>0.9709816533443554</v>
+        <v>0.9186024224941243</v>
       </c>
       <c r="D3">
-        <v>1.624672930394678</v>
+        <v>1.56012335503454</v>
       </c>
       <c r="E3">
-        <v>1.274626584688503</v>
+        <v>1.249048980238381</v>
       </c>
       <c r="F3">
-        <v>0.8607802351642807</v>
+        <v>0.9387646000040889</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.8733021027068019</v>
+        <v>1.137903216480779</v>
       </c>
       <c r="C4">
-        <v>0.9271298272552989</v>
+        <v>1.137903216480779</v>
       </c>
       <c r="D4">
-        <v>1.579363665839338</v>
+        <v>2.3596763441606</v>
       </c>
       <c r="E4">
-        <v>1.256727363368578</v>
+        <v>1.536123804958637</v>
       </c>
       <c r="F4">
-        <v>0.9439031748767551</v>
+        <v>1.130408393855935</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.8445041920748185</v>
+        <v>1.25991956803407</v>
       </c>
       <c r="C5">
-        <v>0.8627426198956063</v>
+        <v>1.25991956803407</v>
       </c>
       <c r="D5">
-        <v>1.266765173386907</v>
+        <v>2.455580339113391</v>
       </c>
       <c r="E5">
-        <v>1.125506629650358</v>
+        <v>1.56702914430887</v>
       </c>
       <c r="F5">
-        <v>0.7803432752644579</v>
+        <v>1.317712427806791</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.7137626293533741</v>
-      </c>
-      <c r="C6">
-        <v>0.7251573416184235</v>
-      </c>
-      <c r="D6">
-        <v>0.8585569453484643</v>
-      </c>
-      <c r="E6">
-        <v>0.9265834799673822</v>
-      </c>
-      <c r="F6">
-        <v>0.6228071346617507</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.6849335899849243</v>
-      </c>
-      <c r="C7">
-        <v>0.7010665083767191</v>
-      </c>
-      <c r="D7">
-        <v>0.9601330716638815</v>
-      </c>
-      <c r="E7">
-        <v>0.9798638026092613</v>
-      </c>
-      <c r="F7">
-        <v>0.7568568053491267</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>1.046814223419742</v>
-      </c>
-      <c r="C8">
-        <v>1.046814223419742</v>
-      </c>
-      <c r="D8">
-        <v>1.653307727300381</v>
-      </c>
-      <c r="E8">
-        <v>1.28581014434495</v>
-      </c>
-      <c r="F8">
-        <v>0.862158306381145</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.5129001421918037</v>
-      </c>
-      <c r="C9">
-        <v>0.5129001421918037</v>
-      </c>
-      <c r="D9">
-        <v>0.2630665558603724</v>
-      </c>
-      <c r="E9">
-        <v>0.5129001421918037</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.9727825379741304</v>
+        <v>0.5418174940949013</v>
       </c>
       <c r="C2">
-        <v>1.078664240660259</v>
+        <v>1.620060478675336</v>
       </c>
       <c r="D2">
-        <v>1.922255377816953</v>
+        <v>9.761454062984352</v>
       </c>
       <c r="E2">
-        <v>1.386454246564578</v>
+        <v>3.124332578805328</v>
       </c>
       <c r="F2">
-        <v>1.02519390896829</v>
+        <v>3.110994274217187</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.8757695348867685</v>
+        <v>0.5681188649824511</v>
       </c>
       <c r="C3">
-        <v>0.9186024224941243</v>
+        <v>1.578281505780222</v>
       </c>
       <c r="D3">
-        <v>1.56012335503454</v>
+        <v>9.03108104079497</v>
       </c>
       <c r="E3">
-        <v>1.249048980238381</v>
+        <v>3.005175708805555</v>
       </c>
       <c r="F3">
-        <v>0.9387646000040889</v>
+        <v>2.984332153941157</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.137903216480779</v>
+        <v>0.6391235188670518</v>
       </c>
       <c r="C4">
-        <v>1.137903216480779</v>
+        <v>1.488536360484932</v>
       </c>
       <c r="D4">
-        <v>2.3596763441606</v>
+        <v>9.31892943597502</v>
       </c>
       <c r="E4">
-        <v>1.536123804958637</v>
+        <v>3.052692162006353</v>
       </c>
       <c r="F4">
-        <v>1.130408393855935</v>
+        <v>3.01954803640462</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.25991956803407</v>
+        <v>0.5562796024915397</v>
       </c>
       <c r="C5">
-        <v>1.25991956803407</v>
+        <v>1.588854171992465</v>
       </c>
       <c r="D5">
-        <v>2.455580339113391</v>
+        <v>9.477300844941421</v>
       </c>
       <c r="E5">
-        <v>1.56702914430887</v>
+        <v>3.078522510059237</v>
       </c>
       <c r="F5">
-        <v>1.317712427806791</v>
+        <v>3.063680153555256</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.7091244686859514</v>
+      </c>
+      <c r="C6">
+        <v>1.549719313849029</v>
+      </c>
+      <c r="D6">
+        <v>9.643609441603539</v>
+      </c>
+      <c r="E6">
+        <v>3.105416146284349</v>
+      </c>
+      <c r="F6">
+        <v>3.060015865731248</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.6223279867891005</v>
+      </c>
+      <c r="C7">
+        <v>1.593628882894858</v>
+      </c>
+      <c r="D7">
+        <v>9.828395328189679</v>
+      </c>
+      <c r="E7">
+        <v>3.135027165462794</v>
+      </c>
+      <c r="F7">
+        <v>3.110808702761217</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.7758631181458544</v>
+      </c>
+      <c r="C8">
+        <v>1.561459785857586</v>
+      </c>
+      <c r="D8">
+        <v>10.03195630587154</v>
+      </c>
+      <c r="E8">
+        <v>3.167326365544217</v>
+      </c>
+      <c r="F8">
+        <v>3.10994974446534</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.5985805415870319</v>
+      </c>
+      <c r="C9">
+        <v>1.595506958100287</v>
+      </c>
+      <c r="D9">
+        <v>10.14980463674964</v>
+      </c>
+      <c r="E9">
+        <v>3.185875803723309</v>
+      </c>
+      <c r="F9">
+        <v>3.170043719220926</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.8159597391921622</v>
+      </c>
+      <c r="C10">
+        <v>1.587015464082368</v>
+      </c>
+      <c r="D10">
+        <v>10.56404781431108</v>
+      </c>
+      <c r="E10">
+        <v>3.25023811655563</v>
+      </c>
+      <c r="F10">
+        <v>3.188381719900689</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.6067207657392607</v>
+      </c>
+      <c r="C11">
+        <v>1.576071087915743</v>
+      </c>
+      <c r="D11">
+        <v>10.50536641133343</v>
+      </c>
+      <c r="E11">
+        <v>3.241198298674956</v>
+      </c>
+      <c r="F11">
+        <v>3.227823845440115</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5418174940949013</v>
+        <v>0.2073439602192391</v>
       </c>
       <c r="C2">
-        <v>1.620060478675336</v>
+        <v>2.184041328014591</v>
       </c>
       <c r="D2">
-        <v>9.761454062984352</v>
+        <v>14.59467764566177</v>
       </c>
       <c r="E2">
-        <v>3.124332578805328</v>
+        <v>3.820298109527811</v>
       </c>
       <c r="F2">
-        <v>3.110994274217187</v>
+        <v>3.867285822301346</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5681188649824511</v>
+        <v>0.6636414647983299</v>
       </c>
       <c r="C3">
-        <v>1.578281505780222</v>
+        <v>1.63741016751905</v>
       </c>
       <c r="D3">
-        <v>9.03108104079497</v>
+        <v>11.25093469053298</v>
       </c>
       <c r="E3">
-        <v>3.005175708805555</v>
+        <v>3.35424129879366</v>
       </c>
       <c r="F3">
-        <v>2.984332153941157</v>
+        <v>3.334574417404926</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6391235188670518</v>
+        <v>0.4237612586259278</v>
       </c>
       <c r="C4">
-        <v>1.488536360484932</v>
+        <v>1.679542155191349</v>
       </c>
       <c r="D4">
-        <v>9.31892943597502</v>
+        <v>11.07338574736448</v>
       </c>
       <c r="E4">
-        <v>3.052692162006353</v>
+        <v>3.327669717289334</v>
       </c>
       <c r="F4">
-        <v>3.01954803640462</v>
+        <v>3.3487637095731</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5562796024915397</v>
+        <v>0.6888881351581906</v>
       </c>
       <c r="C5">
-        <v>1.588854171992465</v>
+        <v>1.666778803909363</v>
       </c>
       <c r="D5">
-        <v>9.477300844941421</v>
+        <v>11.55801848543534</v>
       </c>
       <c r="E5">
-        <v>3.078522510059237</v>
+        <v>3.399708588310966</v>
       </c>
       <c r="F5">
-        <v>3.063680153555256</v>
+        <v>3.379247518761783</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.7091244686859514</v>
+        <v>0.4816360917539647</v>
       </c>
       <c r="C6">
-        <v>1.549719313849029</v>
+        <v>1.844218230436959</v>
       </c>
       <c r="D6">
-        <v>9.643609441603539</v>
+        <v>12.08105673389089</v>
       </c>
       <c r="E6">
-        <v>3.105416146284349</v>
+        <v>3.475781456577915</v>
       </c>
       <c r="F6">
-        <v>3.060015865731248</v>
+        <v>3.495621155895251</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.6223279867891005</v>
+        <v>0.7221805366241528</v>
       </c>
       <c r="C7">
-        <v>1.593628882894858</v>
+        <v>1.78756334845686</v>
       </c>
       <c r="D7">
-        <v>9.828395328189679</v>
+        <v>12.36122690756038</v>
       </c>
       <c r="E7">
-        <v>3.135027165462794</v>
+        <v>3.515853652750692</v>
       </c>
       <c r="F7">
-        <v>3.110808702761217</v>
+        <v>3.495941562969434</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.7758631181458544</v>
+        <v>0.5718078270650869</v>
       </c>
       <c r="C8">
-        <v>1.561459785857586</v>
+        <v>1.854104342957878</v>
       </c>
       <c r="D8">
-        <v>10.03195630587154</v>
+        <v>12.66500268672434</v>
       </c>
       <c r="E8">
-        <v>3.167326365544217</v>
+        <v>3.558792307331847</v>
       </c>
       <c r="F8">
-        <v>3.10994974446534</v>
+        <v>3.570617095893344</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5985805415870319</v>
+        <v>0.7779467227852803</v>
       </c>
       <c r="C9">
-        <v>1.595506958100287</v>
+        <v>1.816601862872559</v>
       </c>
       <c r="D9">
-        <v>10.14980463674964</v>
+        <v>13.04591585095101</v>
       </c>
       <c r="E9">
-        <v>3.185875803723309</v>
+        <v>3.611913045873476</v>
       </c>
       <c r="F9">
-        <v>3.170043719220926</v>
+        <v>3.587437095081128</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.8159597391921622</v>
+        <v>0.5192813677703352</v>
       </c>
       <c r="C10">
-        <v>1.587015464082368</v>
+        <v>1.862221145406507</v>
       </c>
       <c r="D10">
-        <v>10.56404781431108</v>
+        <v>13.30414656006889</v>
       </c>
       <c r="E10">
-        <v>3.25023811655563</v>
+        <v>3.647484963652199</v>
       </c>
       <c r="F10">
-        <v>3.188381719900689</v>
+        <v>3.674236116982628</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.6067207657392607</v>
+        <v>0.8142683941004476</v>
       </c>
       <c r="C11">
-        <v>1.576071087915743</v>
+        <v>1.860469755909099</v>
       </c>
       <c r="D11">
-        <v>10.50536641133343</v>
+        <v>13.97793062376009</v>
       </c>
       <c r="E11">
-        <v>3.241198298674956</v>
+        <v>3.738707079159865</v>
       </c>
       <c r="F11">
-        <v>3.227823845440115</v>
+        <v>3.715917378240766</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2073439602192391</v>
+        <v>-0.237798548211589</v>
       </c>
       <c r="C2">
-        <v>2.184041328014591</v>
+        <v>2.219073147148707</v>
       </c>
       <c r="D2">
-        <v>14.59467764566177</v>
+        <v>15.78507051212126</v>
       </c>
       <c r="E2">
-        <v>3.820298109527811</v>
+        <v>3.973042978891778</v>
       </c>
       <c r="F2">
-        <v>3.867285822301346</v>
+        <v>4.009743767593932</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6636414647983299</v>
+        <v>0.1668817152522232</v>
       </c>
       <c r="C3">
-        <v>1.63741016751905</v>
+        <v>1.721208616355125</v>
       </c>
       <c r="D3">
-        <v>11.25093469053298</v>
+        <v>11.78773906116087</v>
       </c>
       <c r="E3">
-        <v>3.35424129879366</v>
+        <v>3.433327694986436</v>
       </c>
       <c r="F3">
-        <v>3.334574417404926</v>
+        <v>3.468019574832006</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4237612586259278</v>
+        <v>0.007374364274256014</v>
       </c>
       <c r="C4">
-        <v>1.679542155191349</v>
+        <v>1.802371724810875</v>
       </c>
       <c r="D4">
-        <v>11.07338574736448</v>
+        <v>11.19060025837959</v>
       </c>
       <c r="E4">
-        <v>3.327669717289334</v>
+        <v>3.345235456343782</v>
       </c>
       <c r="F4">
-        <v>3.3487637095731</v>
+        <v>3.383901761293858</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6888881351581906</v>
+        <v>0.2454644955640485</v>
       </c>
       <c r="C5">
-        <v>1.666778803909363</v>
+        <v>1.75127826504232</v>
       </c>
       <c r="D5">
-        <v>11.55801848543534</v>
+        <v>10.92499624066271</v>
       </c>
       <c r="E5">
-        <v>3.399708588310966</v>
+        <v>3.305298207524204</v>
       </c>
       <c r="F5">
-        <v>3.379247518761783</v>
+        <v>3.335180323351736</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4816360917539647</v>
+        <v>0.08964530462448218</v>
       </c>
       <c r="C6">
-        <v>1.844218230436959</v>
+        <v>1.817368728623215</v>
       </c>
       <c r="D6">
-        <v>12.08105673389089</v>
+        <v>10.89571318232202</v>
       </c>
       <c r="E6">
-        <v>3.475781456577915</v>
+        <v>3.300865520181339</v>
       </c>
       <c r="F6">
-        <v>3.495621155895251</v>
+        <v>3.339645190262546</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.7221805366241528</v>
+        <v>0.2922757529429554</v>
       </c>
       <c r="C7">
-        <v>1.78756334845686</v>
+        <v>1.817158715501804</v>
       </c>
       <c r="D7">
-        <v>12.36122690756038</v>
+        <v>11.47184296907565</v>
       </c>
       <c r="E7">
-        <v>3.515853652750692</v>
+        <v>3.387010919538886</v>
       </c>
       <c r="F7">
-        <v>3.495941562969434</v>
+        <v>3.416295991223567</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5718078270650869</v>
+        <v>0.1800782816237511</v>
       </c>
       <c r="C8">
-        <v>1.854104342957878</v>
+        <v>1.881494406550722</v>
       </c>
       <c r="D8">
-        <v>12.66500268672434</v>
+        <v>11.31509423920953</v>
       </c>
       <c r="E8">
-        <v>3.558792307331847</v>
+        <v>3.363791646224471</v>
       </c>
       <c r="F8">
-        <v>3.570617095893344</v>
+        <v>3.401759130395282</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.7779467227852803</v>
+        <v>0.3440619902521568</v>
       </c>
       <c r="C9">
-        <v>1.816601862872559</v>
+        <v>1.826509698037073</v>
       </c>
       <c r="D9">
-        <v>13.04591585095101</v>
+        <v>11.52799779226949</v>
       </c>
       <c r="E9">
-        <v>3.611913045873476</v>
+        <v>3.395290531349193</v>
       </c>
       <c r="F9">
-        <v>3.587437095081128</v>
+        <v>3.421969063912408</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5192813677703352</v>
+        <v>0.1457618719346943</v>
       </c>
       <c r="C10">
-        <v>1.862221145406507</v>
+        <v>1.855812420463658</v>
       </c>
       <c r="D10">
-        <v>13.30414656006889</v>
+        <v>11.69936450046915</v>
       </c>
       <c r="E10">
-        <v>3.647484963652199</v>
+        <v>3.420433379042655</v>
       </c>
       <c r="F10">
-        <v>3.674236116982628</v>
+        <v>3.463198346522003</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.8142683941004476</v>
+        <v>0.3616810767302359</v>
       </c>
       <c r="C11">
-        <v>1.860469755909099</v>
+        <v>1.786912209159727</v>
       </c>
       <c r="D11">
-        <v>13.97793062376009</v>
+        <v>11.95894640054174</v>
       </c>
       <c r="E11">
-        <v>3.738707079159865</v>
+        <v>3.45817096172843</v>
       </c>
       <c r="F11">
-        <v>3.715917378240766</v>
+        <v>3.486644870762215</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2922757529429554</v>
+        <v>0.2603692549741538</v>
       </c>
       <c r="C7">
-        <v>1.817158715501804</v>
+        <v>1.880313879190301</v>
       </c>
       <c r="D7">
-        <v>11.47184296907565</v>
+        <v>12.64824988312696</v>
       </c>
       <c r="E7">
-        <v>3.387010919538886</v>
+        <v>3.556437808134279</v>
       </c>
       <c r="F7">
-        <v>3.416295991223567</v>
+        <v>3.597207164417901</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1800782816237511</v>
+        <v>0.2149774803876897</v>
       </c>
       <c r="C8">
-        <v>1.881494406550722</v>
+        <v>2.066399049159351</v>
       </c>
       <c r="D8">
-        <v>11.31509423920953</v>
+        <v>12.86774599829277</v>
       </c>
       <c r="E8">
-        <v>3.363791646224471</v>
+        <v>3.58716406068816</v>
       </c>
       <c r="F8">
-        <v>3.401759130395282</v>
+        <v>3.632992502715109</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3440619902521568</v>
+        <v>0.3416184366656868</v>
       </c>
       <c r="C9">
-        <v>1.826509698037073</v>
+        <v>2.567298676063721</v>
       </c>
       <c r="D9">
-        <v>11.52799779226949</v>
+        <v>20.59292190581267</v>
       </c>
       <c r="E9">
-        <v>3.395290531349193</v>
+        <v>4.53794247493428</v>
       </c>
       <c r="F9">
-        <v>3.421969063912408</v>
+        <v>4.642619354761157</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1457618719346943</v>
+        <v>-0.7803977842537473</v>
       </c>
       <c r="C10">
-        <v>1.855812420463658</v>
+        <v>2.218913924505684</v>
       </c>
       <c r="D10">
-        <v>11.69936450046915</v>
+        <v>9.291300011801141</v>
       </c>
       <c r="E10">
-        <v>3.420433379042655</v>
+        <v>3.048163383383696</v>
       </c>
       <c r="F10">
-        <v>3.463198346522003</v>
+        <v>3.066888094792081</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3616810767302359</v>
+        <v>-0.6077611373159695</v>
       </c>
       <c r="C11">
-        <v>1.786912209159727</v>
+        <v>2.229470670271877</v>
       </c>
       <c r="D11">
-        <v>11.95894640054174</v>
+        <v>6.910496118181399</v>
       </c>
       <c r="E11">
-        <v>3.45817096172843</v>
+        <v>2.628782250050658</v>
       </c>
       <c r="F11">
-        <v>3.486644870762215</v>
+        <v>2.85944105511676</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
